--- a/DDAf_2022_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -126,7 +126,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -168,13 +168,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -192,7 +192,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -261,7 +261,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -273,7 +273,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -375,7 +375,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -393,7 +393,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -411,7 +411,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="176">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="175">
   <si>
     <t>Tableau 27 : Coûts du commerce international</t>
   </si>
@@ -1307,11 +1304,9 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1327,54 +1322,54 @@
     </row>
     <row r="2" spans="1:14" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="12">
         <v>51.830736575388698</v>
@@ -1389,10 +1384,10 @@
         <v>150.82351998057501</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="12">
         <v>336.16703528225702</v>
@@ -1407,18 +1402,18 @@
         <v>435.20329481116499</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="15">
         <v>54.747430317276702</v>
@@ -1433,10 +1428,10 @@
         <v>137.98661881179601</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="15">
         <v>92.599466721636304</v>
@@ -1451,18 +1446,18 @@
         <v>316.84431440083</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="19">
         <v>42.5639678734223</v>
@@ -1477,10 +1472,10 @@
         <v>120.527979169828</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="19">
         <v>69.398910169203702</v>
@@ -1495,18 +1490,18 @@
         <v>147.98797658569899</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="19">
         <v>42.337552905260203</v>
@@ -1521,10 +1516,10 @@
         <v>135.59360729931299</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="19">
         <v>82.384250522245907</v>
@@ -1539,18 +1534,18 @@
         <v>136.96499041920299</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="19">
         <v>85.433550548052295</v>
@@ -1565,10 +1560,10 @@
         <v>258.50444440250601</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="19">
         <v>163.19157278368499</v>
@@ -1583,18 +1578,18 @@
         <v>260.94883609623798</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="C8" s="19">
         <v>56.732278108810398</v>
@@ -1609,10 +1604,10 @@
         <v>116.962586152458</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="19">
         <v>102.69736558903401</v>
@@ -1627,18 +1622,18 @@
         <v>247.47333466248</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="19">
         <v>48.564200419844603</v>
@@ -1653,10 +1648,10 @@
         <v>142.968060778611</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="19">
         <v>94.313186938407199</v>
@@ -1671,18 +1666,18 @@
         <v>247.90317529858501</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="19">
         <v>46.110370637694601</v>
@@ -1697,10 +1692,10 @@
         <v>100.179654201744</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="19">
         <v>69.126107342007003</v>
@@ -1715,36 +1710,36 @@
         <v>154.31172113926101</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="15">
         <v>213.48493359317499</v>
@@ -1759,18 +1754,18 @@
         <v>304.70353134803503</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="C12" s="22">
         <v>56.051564078785397</v>
@@ -1785,10 +1780,10 @@
         <v>261.70940745154502</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="22">
         <v>77.602826597167095</v>
@@ -1803,18 +1798,18 @@
         <v>298.57828175188899</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>38</v>
       </c>
       <c r="C13" s="26">
         <v>49.209015776875901</v>
@@ -1855,10 +1850,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="19">
         <v>153.07869097667</v>
@@ -1873,10 +1868,10 @@
         <v>267.13540922660502</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="19">
         <v>438.45391652189602</v>
@@ -1891,24 +1886,24 @@
         <v>349.33841848404398</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="C15" s="19">
         <v>172.64643243634299</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="19">
         <v>189.843152174556</v>
@@ -1917,10 +1912,10 @@
         <v>179.722740866816</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="19">
         <v>304.97948749005798</v>
@@ -1935,18 +1930,18 @@
         <v>241.83865383169601</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="C16" s="19">
         <v>201.7094463736</v>
@@ -1961,36 +1956,36 @@
         <v>282.75507743921298</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="19">
         <v>471.98672620986702</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>46</v>
       </c>
       <c r="C17" s="12">
         <v>335.96149047020901</v>
@@ -2005,42 +2000,42 @@
         <v>269.46208584453001</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="12">
         <v>344.70110428761001</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="12">
         <v>429.58307489847698</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>48</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="12">
         <v>147.26392140112199</v>
@@ -2049,10 +2044,10 @@
         <v>164.873914570332</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="12">
         <v>303.28486766779901</v>
@@ -2061,27 +2056,27 @@
         <v>227.87032257767001</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="12">
         <v>271.03257314126802</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="C19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="15">
         <v>175.38677190354599</v>
@@ -2093,10 +2088,10 @@
         <v>141.955485050455</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="15">
         <v>275.84325969704997</v>
@@ -2111,21 +2106,21 @@
         <v>322.312985726536</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>52</v>
-      </c>
       <c r="C20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="12">
         <v>204.39715892874301</v>
@@ -2137,86 +2132,86 @@
         <v>246.24305724243499</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="12">
         <v>267.95542038997002</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>54</v>
-      </c>
       <c r="C21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>56</v>
-      </c>
       <c r="C22" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="19">
         <v>188.27587807278499</v>
@@ -2225,16 +2220,16 @@
         <v>238.08932020787</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="19">
         <v>510.44574566533498</v>
@@ -2243,24 +2238,24 @@
         <v>316.52153044878497</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="26">
         <v>161.22542049028399</v>
@@ -2269,7 +2264,7 @@
         <v>178.332417917887</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="27">
         <v>178.322910047676</v>
@@ -2295,31 +2290,31 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="C24" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="19">
         <v>477.30214250947898</v>
@@ -2331,106 +2326,106 @@
         <v>405.68390951019597</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="C26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="19">
         <v>180.57375342713601</v>
@@ -2445,10 +2440,10 @@
         <v>227.192478895736</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="19">
         <v>262.69512530653901</v>
@@ -2463,18 +2458,18 @@
         <v>285.22270044549902</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="19">
         <v>85.617584566154605</v>
@@ -2489,10 +2484,10 @@
         <v>171.286819120968</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="19">
         <v>157.33893641499699</v>
@@ -2507,21 +2502,21 @@
         <v>268.35568312802201</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="C29" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="19">
         <v>99.894812947487495</v>
@@ -2533,13 +2528,13 @@
         <v>160.34008027817501</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" s="19">
         <v>221.747091828219</v>
@@ -2551,21 +2546,21 @@
         <v>279.13032555960302</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="C30" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="19">
         <v>99.338832195610607</v>
@@ -2577,13 +2572,13 @@
         <v>151.92597089736901</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" s="19">
         <v>246.83562043177901</v>
@@ -2595,18 +2590,18 @@
         <v>262.04243701134902</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C31" s="19">
         <v>127.192892240592</v>
@@ -2621,10 +2616,10 @@
         <v>250.51367948199899</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" s="19">
         <v>263.97888990091201</v>
@@ -2639,39 +2634,39 @@
         <v>374.69521703280998</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N31" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>75</v>
-      </c>
       <c r="C32" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" s="19">
         <v>220.62724327086701</v>
@@ -2683,106 +2678,106 @@
         <v>305.76134135139</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="C33" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="C34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C35" s="19">
         <v>112.068021144718</v>
@@ -2797,10 +2792,10 @@
         <v>166.21305583743899</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" s="19">
         <v>171.05206098191701</v>
@@ -2815,18 +2810,18 @@
         <v>203.38272162259</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="C36" s="19">
         <v>94.546924897295497</v>
@@ -2841,10 +2836,10 @@
         <v>156.96083446585399</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" s="19">
         <v>241.91970874732399</v>
@@ -2859,18 +2854,18 @@
         <v>286.75889228294</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="C37" s="19">
         <v>81.132179059662604</v>
@@ -2885,10 +2880,10 @@
         <v>171.468432678966</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="19">
         <v>131.46049688313499</v>
@@ -2903,18 +2898,18 @@
         <v>256.84967775838498</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="26">
         <v>97.757932850682394</v>
@@ -2955,10 +2950,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="C39" s="12">
         <v>74.821543700897806</v>
@@ -2973,10 +2968,10 @@
         <v>105.884934972412</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" s="12">
         <v>225.440527026307</v>
@@ -2991,18 +2986,18 @@
         <v>278.07977993963698</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="C40" s="19">
         <v>156.24437402953799</v>
@@ -3017,13 +3012,13 @@
         <v>134.70727870746899</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J40" s="19">
         <v>283.61760663096101</v>
@@ -3035,62 +3030,62 @@
         <v>183.89146836886499</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>92</v>
-      </c>
       <c r="C41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="C42" s="12">
         <v>148.54431790312799</v>
@@ -3105,10 +3100,10 @@
         <v>152.72248479377399</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" s="12">
         <v>285.196453248578</v>
@@ -3123,18 +3118,18 @@
         <v>363.41437404085298</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="C43" s="19">
         <v>42.973523195156702</v>
@@ -3149,10 +3144,10 @@
         <v>99.960303972723395</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" s="19">
         <v>84.377084218299899</v>
@@ -3167,18 +3162,18 @@
         <v>171.276172996638</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N43" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="C44" s="19">
         <v>68.338757905151596</v>
@@ -3193,10 +3188,10 @@
         <v>88.682378264687998</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" s="19">
         <v>220.024146331976</v>
@@ -3211,18 +3206,18 @@
         <v>200.00901938220599</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N44" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="26">
         <v>54.625819307430199</v>
@@ -3263,10 +3258,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="C46" s="19">
         <v>129.61582910499399</v>
@@ -3281,10 +3276,10 @@
         <v>197.49839730029001</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" s="19">
         <v>472.98706096349798</v>
@@ -3299,18 +3294,18 @@
         <v>348.25673668556499</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N46" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C47" s="19">
         <v>71.078059085985601</v>
@@ -3325,10 +3320,10 @@
         <v>154.26357197626101</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" s="19">
         <v>187.11711172014199</v>
@@ -3343,24 +3338,24 @@
         <v>257.80049680044101</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N47" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>105</v>
-      </c>
       <c r="C48" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="19">
         <v>249.37258908533599</v>
@@ -3369,36 +3364,36 @@
         <v>144.27844757591899</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L48" s="19">
         <v>200.84322021604001</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N48" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="C49" s="19">
         <v>78.544036115476302</v>
@@ -3413,10 +3408,10 @@
         <v>168.312666771945</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" s="19">
         <v>180.918691124611</v>
@@ -3431,18 +3426,18 @@
         <v>247.579353106002</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N49" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C50" s="19">
         <v>149.10171328795201</v>
@@ -3457,36 +3452,36 @@
         <v>238.17300559765999</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50" s="19">
         <v>296.95085535952501</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L50" s="19">
         <v>412.98843884198101</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N50" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="C51" s="15">
         <v>85.701081038356307</v>
@@ -3501,10 +3496,10 @@
         <v>132.25617892885199</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" s="15">
         <v>235.125926427705</v>
@@ -3519,18 +3514,18 @@
         <v>265.92929265110303</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="C52" s="19">
         <v>122.27240306080699</v>
@@ -3545,10 +3540,10 @@
         <v>147.75277411834901</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" s="19">
         <v>201.30472961063299</v>
@@ -3563,80 +3558,80 @@
         <v>301.24312109361199</v>
       </c>
       <c r="M52" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N52" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>115</v>
-      </c>
       <c r="C53" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M53" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N53" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>117</v>
-      </c>
       <c r="C54" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I54" s="19">
         <v>216.100217405395</v>
@@ -3651,18 +3646,18 @@
         <v>331.10151288740099</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N54" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="C55" s="19">
         <v>78.028428020712795</v>
@@ -3677,10 +3672,10 @@
         <v>137.48123530552601</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I55" s="19">
         <v>141.08844050774101</v>
@@ -3695,18 +3690,18 @@
         <v>539.08201824297703</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N55" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="C56" s="19">
         <v>109.571402685137</v>
@@ -3721,10 +3716,10 @@
         <v>183.855754091248</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I56" s="19">
         <v>261.90279059484402</v>
@@ -3739,18 +3734,18 @@
         <v>404.50764493274698</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N56" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>122</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>123</v>
       </c>
       <c r="C57" s="12">
         <v>163.823825488762</v>
@@ -3765,10 +3760,10 @@
         <v>191.49005126265001</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I57" s="12">
         <v>372.61390319741201</v>
@@ -3783,18 +3778,18 @@
         <v>305.18383675515099</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="C58" s="19">
         <v>87.365051188778395</v>
@@ -3809,10 +3804,10 @@
         <v>160.04741062789699</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I58" s="19">
         <v>171.04686422224199</v>
@@ -3827,21 +3822,21 @@
         <v>255.371119725055</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N58" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="C59" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" s="19">
         <v>112.68029857245899</v>
@@ -3853,16 +3848,16 @@
         <v>168.967571749276</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59" s="19">
         <v>424.68089844682601</v>
@@ -3871,18 +3866,18 @@
         <v>471.17375509036202</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N59" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="C60" s="15">
         <v>69.779645134332299</v>
@@ -3897,10 +3892,10 @@
         <v>171.099539363519</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60" s="15">
         <v>392.61108257242</v>
@@ -3915,16 +3910,16 @@
         <v>388.084461747327</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="26">
         <v>96.486796462000299</v>
@@ -3966,13 +3961,13 @@
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="32">
         <v>61.376151921801302</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62" s="32">
         <v>107.91364571422901</v>
@@ -3990,7 +3985,7 @@
         <v>127.573790018037</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K62" s="32">
         <v>200.420669632954</v>
@@ -4008,13 +4003,13 @@
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="32">
         <v>38.9650262922842</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" s="32">
         <v>59.949215590552001</v>
@@ -4023,16 +4018,16 @@
         <v>78.283072789856902</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63" s="32">
         <v>74.2376852172751</v>
       </c>
       <c r="J63" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K63" s="32">
         <v>118.080121334434</v>
@@ -4041,22 +4036,22 @@
         <v>144.116735474465</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N63" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="36">
         <v>40.174284413825298</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" s="36">
         <v>49.567704807044002</v>
@@ -4074,7 +4069,7 @@
         <v>59.328203962463697</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K64" s="36">
         <v>72.378028145304299</v>
@@ -4092,13 +4087,13 @@
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" s="39">
         <v>85.639945889666507</v>
@@ -4116,7 +4111,7 @@
         <v>144.34310180365901</v>
       </c>
       <c r="J65" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K65" s="39">
         <v>162.42465935190199</v>
@@ -4134,13 +4129,13 @@
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="42">
         <v>39.2664685164346</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" s="42">
         <v>60.374337838404799</v>
@@ -4152,13 +4147,13 @@
         <v>80.217230340500905</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I66" s="42">
         <v>74.8974489974497</v>
       </c>
       <c r="J66" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K66" s="42">
         <v>118.75975546127501</v>
@@ -4170,19 +4165,19 @@
         <v>146.91048134510501</v>
       </c>
       <c r="N66" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="39">
         <v>78.924444276915906</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" s="39">
         <v>123.262314331588</v>
@@ -4200,7 +4195,7 @@
         <v>160.89027500242</v>
       </c>
       <c r="J67" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K67" s="39">
         <v>206.30241226486601</v>
@@ -4218,13 +4213,13 @@
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="39">
         <v>68.4760821903688</v>
       </c>
       <c r="D68" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" s="39">
         <v>132.94030169846701</v>
@@ -4242,7 +4237,7 @@
         <v>152.41738841304999</v>
       </c>
       <c r="J68" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K68" s="39">
         <v>287.73736537754201</v>
@@ -4260,13 +4255,13 @@
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="39">
         <v>95.348334808057501</v>
       </c>
       <c r="D69" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" s="39">
         <v>131.155830172127</v>
@@ -4284,7 +4279,7 @@
         <v>197.511974693063</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K69" s="39">
         <v>220.555237196826</v>
@@ -4302,13 +4297,13 @@
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="39">
         <v>133.422427024618</v>
       </c>
       <c r="D70" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="39">
         <v>165.43784868361399</v>
@@ -4326,7 +4321,7 @@
         <v>291.08639055172898</v>
       </c>
       <c r="J70" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K70" s="39">
         <v>304.89828413757903</v>
@@ -4344,13 +4339,13 @@
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="39">
         <v>96.486796462000299</v>
       </c>
       <c r="D71" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" s="39">
         <v>128.47471969284899</v>
@@ -4368,7 +4363,7 @@
         <v>246.56573184116601</v>
       </c>
       <c r="J71" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K71" s="39">
         <v>300.22985673081598</v>
@@ -4386,13 +4381,13 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="39">
         <v>91.834205858882797</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" s="39">
         <v>137.62789626531901</v>
@@ -4410,7 +4405,7 @@
         <v>154.67090874409999</v>
       </c>
       <c r="J72" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K72" s="39">
         <v>208.201401468104</v>
@@ -4428,13 +4423,13 @@
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="39">
         <v>50.968354472305499</v>
       </c>
       <c r="D73" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" s="39">
         <v>83.213970077518795</v>
@@ -4452,7 +4447,7 @@
         <v>99.921012224068903</v>
       </c>
       <c r="J73" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K73" s="39">
         <v>137.275260610728</v>
@@ -4470,13 +4465,13 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="39">
         <v>49.562443578991903</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" s="39">
         <v>119.163231056021</v>
@@ -4494,7 +4489,7 @@
         <v>113.399323404374</v>
       </c>
       <c r="J74" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K74" s="39">
         <v>254.447929809057</v>
@@ -4512,13 +4507,13 @@
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="42">
         <v>56.5123012861239</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75" s="42">
         <v>94.039444998863303</v>
@@ -4536,7 +4531,7 @@
         <v>113.125367206592</v>
       </c>
       <c r="J75" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K75" s="42">
         <v>143.63858734496</v>
@@ -4554,13 +4549,13 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="39">
         <v>60.781680603528798</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76" s="39">
         <v>88.717127882000895</v>
@@ -4578,7 +4573,7 @@
         <v>111.348485960904</v>
       </c>
       <c r="J76" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K76" s="39">
         <v>153.33827618595299</v>
@@ -4596,13 +4591,13 @@
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="39">
         <v>83.565200874825393</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" s="39">
         <v>88.249485141377605</v>
@@ -4620,7 +4615,7 @@
         <v>128.66479099577899</v>
       </c>
       <c r="J77" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K77" s="39">
         <v>129.907840744418</v>
@@ -4638,13 +4633,13 @@
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" s="39">
         <v>27.5780689638583</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" s="39">
         <v>42.876386028675597</v>
@@ -4662,7 +4657,7 @@
         <v>59.9111429313404</v>
       </c>
       <c r="J78" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K78" s="39">
         <v>86.793767030860195</v>
@@ -4680,13 +4675,13 @@
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="42">
         <v>29.814630050013601</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="42">
         <v>46.178609478652199</v>
@@ -4704,7 +4699,7 @@
         <v>54.524664673645702</v>
       </c>
       <c r="J79" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K79" s="42">
         <v>92.067005935529295</v>
@@ -4722,13 +4717,13 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" s="39">
         <v>104.444509725359</v>
       </c>
       <c r="D80" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="39">
         <v>148.765635589933</v>
@@ -4737,16 +4732,16 @@
         <v>159.011788610547</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I80" s="39">
         <v>285.420281833996</v>
       </c>
       <c r="J80" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K80" s="39">
         <v>302.75376981635799</v>
@@ -4755,22 +4750,22 @@
         <v>320.32288037608203</v>
       </c>
       <c r="M80" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N80" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="39">
         <v>72.060234591131405</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" s="39">
         <v>99.553734726810802</v>
@@ -4779,16 +4774,16 @@
         <v>111.56923857715699</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I81" s="39">
         <v>128.312695833074</v>
       </c>
       <c r="J81" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K81" s="39">
         <v>218.79414722921899</v>
@@ -4797,22 +4792,22 @@
         <v>221.64538581723801</v>
       </c>
       <c r="M81" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N81" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="39">
         <v>58.899804001255298</v>
       </c>
       <c r="D82" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82" s="39">
         <v>100.31930891586499</v>
@@ -4821,16 +4816,16 @@
         <v>130.790570995992</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I82" s="39">
         <v>118.91890768047</v>
       </c>
       <c r="J82" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K82" s="39">
         <v>185.143345704941</v>
@@ -4839,22 +4834,22 @@
         <v>218.21563311231</v>
       </c>
       <c r="M82" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N82" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="42">
         <v>36.7491240950133</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" s="42">
         <v>56.5975028076111</v>
@@ -4863,16 +4858,16 @@
         <v>75.764486488020694</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H83" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I83" s="42">
         <v>71.028466099808398</v>
       </c>
       <c r="J83" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K83" s="42">
         <v>110.86094486157801</v>
@@ -4881,22 +4876,22 @@
         <v>138.958282277346</v>
       </c>
       <c r="M83" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N83" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="39">
         <v>78.157315830829901</v>
       </c>
       <c r="D84" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" s="39">
         <v>112.602806874392</v>
@@ -4905,16 +4900,16 @@
         <v>167.585822534947</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I84" s="39">
         <v>172.61079115522401</v>
       </c>
       <c r="J84" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K84" s="39">
         <v>217.50764185544301</v>
@@ -4923,64 +4918,64 @@
         <v>314.27722546145202</v>
       </c>
       <c r="M84" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N84" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I85" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J85" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K85" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L85" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M85" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N85" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="39">
         <v>66.570216866287097</v>
       </c>
       <c r="D86" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" s="39">
         <v>125.974585333677</v>
@@ -4989,16 +4984,16 @@
         <v>142.34617003089701</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I86" s="39">
         <v>150.23002460915399</v>
       </c>
       <c r="J86" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K86" s="39">
         <v>252.52984718926999</v>
@@ -5007,22 +5002,22 @@
         <v>254.78986892664099</v>
       </c>
       <c r="M86" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N86" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="39">
         <v>88.414333521384506</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87" s="39">
         <v>97.214781299744104</v>
@@ -5031,16 +5026,16 @@
         <v>109.21782251515999</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87" s="39">
         <v>146.54691519571799</v>
       </c>
       <c r="J87" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K87" s="39">
         <v>168.866050450046</v>
@@ -5049,22 +5044,22 @@
         <v>183.99437626906601</v>
       </c>
       <c r="M87" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N87" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" s="39">
         <v>47.9746812291244</v>
       </c>
       <c r="D88" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88" s="39">
         <v>80.184416644585895</v>
@@ -5073,16 +5068,16 @@
         <v>109.836302954289</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I88" s="39">
         <v>78.244512637529397</v>
       </c>
       <c r="J88" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K88" s="39">
         <v>121.231384668761</v>
@@ -5091,22 +5086,22 @@
         <v>172.24723958889001</v>
       </c>
       <c r="M88" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N88" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" s="39">
         <v>57.958255895472902</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89" s="39">
         <v>70.231343556760805</v>
@@ -5115,16 +5110,16 @@
         <v>87.449892792359606</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I89" s="39">
         <v>106.33810593748299</v>
       </c>
       <c r="J89" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K89" s="39">
         <v>135.92236299137801</v>
@@ -5133,22 +5128,22 @@
         <v>160.27531118502199</v>
       </c>
       <c r="M89" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N89" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C90" s="42">
         <v>29.886308229824699</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90" s="42">
         <v>52.704492178351103</v>
@@ -5157,16 +5152,16 @@
         <v>71.683241665095395</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H90" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I90" s="42">
         <v>55.803219410349001</v>
       </c>
       <c r="J90" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K90" s="42">
         <v>105.66207722802299</v>
@@ -5175,22 +5170,22 @@
         <v>133.04108664051299</v>
       </c>
       <c r="M90" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N90" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C91" s="39">
         <v>79.367099268025896</v>
       </c>
       <c r="D91" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91" s="39">
         <v>118.014990105122</v>
@@ -5199,16 +5194,16 @@
         <v>162.899866805779</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I91" s="39">
         <v>190.21010826300301</v>
       </c>
       <c r="J91" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K91" s="39">
         <v>221.14037135491199</v>
@@ -5217,22 +5212,22 @@
         <v>330.81030170548797</v>
       </c>
       <c r="M91" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N91" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C92" s="39">
         <v>90.262074832149395</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92" s="39">
         <v>103.866762913125</v>
@@ -5241,16 +5236,16 @@
         <v>114.288802480687</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I92" s="39">
         <v>135.64759681270499</v>
       </c>
       <c r="J92" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K92" s="39">
         <v>175.22858806241501</v>
@@ -5259,22 +5254,22 @@
         <v>213.58082746348899</v>
       </c>
       <c r="M92" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N92" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D93" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93" s="39">
         <v>136.82923030051501</v>
@@ -5283,16 +5278,16 @@
         <v>152.843301047533</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J93" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K93" s="39">
         <v>226.97595410941301</v>
@@ -5301,22 +5296,22 @@
         <v>270.96600473076001</v>
       </c>
       <c r="M93" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N93" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C94" s="39">
         <v>153.74206582027401</v>
       </c>
       <c r="D94" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94" s="39">
         <v>112.64874664658601</v>
@@ -5325,16 +5320,16 @@
         <v>130.74092053856401</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I94" s="39">
         <v>303.30211057060899</v>
       </c>
       <c r="J94" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K94" s="39">
         <v>165.53952338737</v>
@@ -5343,22 +5338,22 @@
         <v>182.60348539408301</v>
       </c>
       <c r="M94" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N94" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C95" s="39">
         <v>61.843269059052403</v>
       </c>
       <c r="D95" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95" s="39">
         <v>88.985390136149704</v>
@@ -5367,16 +5362,16 @@
         <v>187.422313331335</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I95" s="39">
         <v>126.67844447645</v>
       </c>
       <c r="J95" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K95" s="39">
         <v>149.431274150451</v>
@@ -5385,22 +5380,22 @@
         <v>316.29410111436999</v>
       </c>
       <c r="M95" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N95" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" s="42">
         <v>90.506253006812699</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96" s="42">
         <v>114.42354258838699</v>
@@ -5409,16 +5404,16 @@
         <v>130.08843891683</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H96" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I96" s="42">
         <v>134.62907203407201</v>
       </c>
       <c r="J96" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K96" s="42">
         <v>194.986132860537</v>
@@ -5427,22 +5422,22 @@
         <v>226.21234054348301</v>
       </c>
       <c r="M96" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N96" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="39">
         <v>77.149423290903798</v>
       </c>
       <c r="D97" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97" s="39">
         <v>122.470849215846</v>
@@ -5451,16 +5446,16 @@
         <v>172.787205764768</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I97" s="39">
         <v>170.09028975107199</v>
       </c>
       <c r="J97" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K97" s="39">
         <v>230.322745408304</v>
@@ -5469,22 +5464,22 @@
         <v>310.71248501990999</v>
       </c>
       <c r="M97" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N97" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="39">
         <v>97.010427435274096</v>
       </c>
       <c r="D98" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98" s="39">
         <v>109.065150699225</v>
@@ -5493,16 +5488,16 @@
         <v>126.370559948601</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I98" s="39">
         <v>171.964186853141</v>
       </c>
       <c r="J98" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K98" s="39">
         <v>194.29877487108101</v>
@@ -5511,52 +5506,52 @@
         <v>222.833473852655</v>
       </c>
       <c r="M98" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N98" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F99" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I99" s="42">
         <v>259.76262535925503</v>
       </c>
       <c r="J99" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K99" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L99" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M99" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N99" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
@@ -5577,7 +5572,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -5595,7 +5590,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -5613,7 +5608,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -5631,7 +5626,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -5649,7 +5644,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -5697,7 +5692,7 @@
     </row>
     <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -5729,7 +5724,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -5746,7 +5741,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -5778,7 +5773,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -5795,7 +5790,7 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -5827,7 +5822,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="176">
   <si>
     <t>Tableau 27 : Coûts du commerce international</t>
   </si>
@@ -501,19 +501,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -528,7 +531,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Base de données des coûts commerciaux CESAP-Banque mondiale (mis à jour 01/07/2021).</t>
@@ -5389,7 +5392,7 @@
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C96" s="42">
         <v>90.506253006812699</v>
@@ -5431,7 +5434,7 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C97" s="39">
         <v>77.149423290903798</v>
@@ -5473,7 +5476,7 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C98" s="39">
         <v>97.010427435274096</v>
@@ -5515,7 +5518,7 @@
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C99" s="42" t="s">
         <v>17</v>
@@ -5572,7 +5575,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -5590,7 +5593,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -5608,7 +5611,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -5626,7 +5629,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -5692,7 +5695,7 @@
     </row>
     <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -5724,7 +5727,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -5741,7 +5744,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -5773,7 +5776,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -5790,7 +5793,7 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
     <t>Source : Base de données des coûts commerciaux CESAP-Banque mondiale (mis à jour 01/07/2021).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -5825,7 +5825,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
